--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxLock.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxLock.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.16\St1Share(NAS)\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -94,120 +94,124 @@
     <t>最後更新人員</t>
   </si>
   <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxLock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖定序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByCustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockNo asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖定單位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TlrNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖定櫃員</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖定控制檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶號</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxLock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LockNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鎖定序號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByCustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LockNo asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鎖定單位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TlrNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鎖定櫃員</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鎖定控制檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +803,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -819,7 +823,7 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>48</v>
@@ -847,7 +851,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -871,10 +875,10 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -907,22 +911,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -930,13 +934,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="5"/>
@@ -948,13 +952,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="27">
         <v>7</v>
@@ -968,16 +972,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="22"/>
@@ -988,16 +992,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="22"/>
@@ -1008,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="22"/>
@@ -1028,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>12</v>
@@ -1044,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>14</v>
@@ -1062,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>16</v>
@@ -1078,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>17</v>
@@ -1136,13 +1140,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
